--- a/Projeto 4/epp.xlsx
+++ b/Projeto 4/epp.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\GitHub\Dados\Projeto4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\CD1S17\Projeto 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="372">
   <si>
     <t>Country</t>
   </si>
@@ -28418,10 +28418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28877,6 +28877,138 @@
       </c>
       <c r="C41" s="5">
         <v>5.6108865053365697</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="5">
+        <v>8.1716647546124896</v>
+      </c>
+      <c r="C42" s="5">
+        <v>5.6445413773299196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="5">
+        <v>7.9751086967012998</v>
+      </c>
+      <c r="C43" s="5">
+        <v>5.4474166795446397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="5">
+        <v>7.9143787386008597</v>
+      </c>
+      <c r="C44" s="5">
+        <v>5.57015291531392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="5">
+        <v>8.2723135496906206</v>
+      </c>
+      <c r="C45" s="5">
+        <v>5.5738619479879796</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="5">
+        <v>8.3642892326926095</v>
+      </c>
+      <c r="C46" s="5">
+        <v>5.5149063465723298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="5">
+        <v>8.4240411611785095</v>
+      </c>
+      <c r="C47" s="5">
+        <v>5.6002350599172299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="5">
+        <v>8.2367699373472707</v>
+      </c>
+      <c r="C48" s="5">
+        <v>5.6054966929012098</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="5">
+        <v>8.2518497189151194</v>
+      </c>
+      <c r="C49" s="5">
+        <v>5.6830073318305798</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="5">
+        <v>7.9458464932033896</v>
+      </c>
+      <c r="C50" s="5">
+        <v>5.7788173128357796</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="5">
+        <v>7.4339735111707199</v>
+      </c>
+      <c r="C51" s="5">
+        <v>5.7388626393399997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5">
+        <v>7.3796260413668904</v>
+      </c>
+      <c r="C52" s="5">
+        <v>5.5932212396523697</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="5">
+        <v>7.4262041931133203</v>
+      </c>
+      <c r="C53" s="5">
+        <v>5.2959401607384402</v>
       </c>
     </row>
   </sheetData>
@@ -28889,7 +29021,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
